--- a/Cuadros/q10_budget.xlsx
+++ b/Cuadros/q10_budget.xlsx
@@ -3,23 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="q10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="q10_q5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="q10_q5_media" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="q10_q6" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="q10_q6_media" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="q10_q9" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="q10_q9_media" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="q10_q4agrup" sheetId="8" state="visible" r:id="rId2"/>
+    <sheet name="q10_q4agrup_media" sheetId="9" state="visible" r:id="rId3"/>
+    <sheet name="q10_q5" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="q10_q5_media" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="q10_q6" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="q10_q6_media" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="q10_q9" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="q10_q9_media" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="q13_q4agrup" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="q14_q4agrup" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Annual_budget</t>
   </si>
@@ -129,52 +133,97 @@
     <t>(i) &gt; 1000000</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Annual_budget</t>
+  </si>
+  <si>
+    <t>(1) 2021-2023</t>
+  </si>
+  <si>
+    <t>(2) From 2015 to 2020</t>
+  </si>
+  <si>
+    <t>(3) From 2010 to 2014</t>
+  </si>
+  <si>
+    <t>(4) From 2000 to 2009</t>
+  </si>
+  <si>
+    <t>(5) Before 2000</t>
+  </si>
+  <si>
+    <t>(a) Zero budget</t>
+  </si>
+  <si>
+    <t>(b) &lt;5000</t>
+  </si>
+  <si>
+    <t>(c) 5001-10000</t>
+  </si>
+  <si>
+    <t>(d) 10001-30000</t>
+  </si>
+  <si>
+    <t>(e) 30001 -50000</t>
+  </si>
+  <si>
+    <t>(f) 50001 - 100000</t>
+  </si>
+  <si>
+    <t>(g) 100001 - 500000</t>
+  </si>
+  <si>
+    <t>(h) 500001 - 1000000</t>
+  </si>
+  <si>
+    <t>(i) &gt; 1000000</t>
+  </si>
+  <si>
+    <t>Other subjects</t>
+  </si>
+  <si>
+    <t>Specific AWID subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External funding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific AWID subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Annual_budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) 2021-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2) From 2015 to 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3) From 2010 to 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4) From 2000 to 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5) Before 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(a) Zero budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(b) &lt;5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(c) 5001-10000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(d) 10001-30000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(e) 30001 -50000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(f) 50001 - 100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(g) 100001 - 500000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(h) 500001 - 1000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(i) &gt; 1000000</t>
+    <t xml:space="preserve">q4_awid_focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 Zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Lower than 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Between 30% and 40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Between 50% and 60%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Between 70% and 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Higher than 80%</t>
   </si>
 </sst>
 </file>
@@ -511,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -688,6 +737,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="n">
+        <v>89</v>
+      </c>
+      <c r="C2" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="n">
+        <v>235</v>
+      </c>
+      <c r="C3" t="n">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>66</v>
+      </c>
+      <c r="F3" t="n">
+        <v>57</v>
+      </c>
+      <c r="G3" t="n">
+        <v>88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>111</v>
+      </c>
+      <c r="H5" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47</v>
+      </c>
+      <c r="H6" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79</v>
+      </c>
+      <c r="F7" t="n">
+        <v>82</v>
+      </c>
+      <c r="G7" t="n">
+        <v>124</v>
+      </c>
+      <c r="H7" t="n">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -701,22 +993,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -724,19 +1010,13 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +1024,13 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -764,19 +1038,13 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -784,19 +1052,13 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -804,19 +1066,13 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -824,19 +1080,13 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -844,19 +1094,13 @@
         <v>2021</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>156</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -864,19 +1108,13 @@
         <v>2021</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -884,19 +1122,13 @@
         <v>2021</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -904,19 +1136,13 @@
         <v>2022</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -924,19 +1150,13 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -944,19 +1164,13 @@
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -964,19 +1178,13 @@
         <v>2022</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -984,19 +1192,13 @@
         <v>2022</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -1004,19 +1206,13 @@
         <v>2022</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -1024,19 +1220,13 @@
         <v>2022</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>171</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18">
@@ -1044,19 +1234,13 @@
         <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -1064,19 +1248,13 @@
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -1084,19 +1262,13 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -1104,19 +1276,13 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22">
@@ -1124,19 +1290,13 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6</v>
-      </c>
-      <c r="F22" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1144,19 +1304,13 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
@@ -1164,19 +1318,13 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1184,19 +1332,13 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -1204,19 +1346,13 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>182</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
@@ -1224,19 +1360,13 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1244,19 +1374,13 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1269,180 +1393,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B25"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
         <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1461,28 +1523,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -1490,25 +1546,19 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>71</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1516,25 +1566,19 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
@@ -1542,25 +1586,19 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>68</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -1568,25 +1606,19 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>80</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -1594,25 +1626,19 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>61</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1620,25 +1646,19 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1646,25 +1666,19 @@
         <v>2021</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>89</v>
-      </c>
-      <c r="G8" t="n">
-        <v>30</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -1672,25 +1686,19 @@
         <v>2021</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1698,25 +1706,19 @@
         <v>2021</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -1724,25 +1726,19 @@
         <v>2022</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>59</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -1750,25 +1746,19 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
+        <v>53</v>
+      </c>
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="D12" t="n">
-        <v>12</v>
-      </c>
       <c r="E12" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>92</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -1776,25 +1766,19 @@
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>77</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -1802,25 +1786,19 @@
         <v>2022</v>
       </c>
       <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
-        <v>63</v>
-      </c>
       <c r="F14" t="n">
-        <v>91</v>
-      </c>
-      <c r="G14" t="n">
-        <v>18</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -1828,25 +1806,19 @@
         <v>2022</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>59</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -1854,25 +1826,19 @@
         <v>2022</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>69</v>
-      </c>
-      <c r="G16" t="n">
-        <v>16</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17">
@@ -1880,25 +1846,19 @@
         <v>2022</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>95</v>
-      </c>
-      <c r="G17" t="n">
-        <v>36</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
@@ -1906,25 +1866,19 @@
         <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
@@ -1932,25 +1886,19 @@
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
-      </c>
-      <c r="G19" t="n">
-        <v>11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1958,25 +1906,19 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="n">
         <v>8</v>
       </c>
-      <c r="E20" t="n">
-        <v>71</v>
-      </c>
       <c r="F20" t="n">
-        <v>52</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -1984,25 +1926,19 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>91</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
@@ -2010,25 +1946,19 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>68</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -2036,25 +1966,19 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="n">
         <v>6</v>
       </c>
-      <c r="E23" t="n">
-        <v>75</v>
-      </c>
       <c r="F23" t="n">
-        <v>96</v>
-      </c>
-      <c r="G23" t="n">
-        <v>15</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -2062,25 +1986,19 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>65</v>
-      </c>
-      <c r="G24" t="n">
-        <v>10</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -2088,25 +2006,19 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>78</v>
-      </c>
-      <c r="G25" t="n">
-        <v>20</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26">
@@ -2114,25 +2026,19 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>112</v>
-      </c>
-      <c r="G26" t="n">
-        <v>33</v>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
@@ -2140,25 +2046,19 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
-      </c>
-      <c r="G27" t="n">
-        <v>9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -2166,25 +2066,19 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>24</v>
-      </c>
-      <c r="G28" t="n">
-        <v>11</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2197,238 +2091,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>73</v>
-      </c>
       <c r="E2" t="n">
-        <v>61</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
+        <v>52</v>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
         <v>29</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>63</v>
-      </c>
       <c r="E5" t="n">
-        <v>89</v>
-      </c>
-      <c r="F5" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2441,31 +2277,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -2473,22 +2312,25 @@
         <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2496,22 +2338,25 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2519,22 +2364,25 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2542,22 +2390,25 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2565,22 +2416,25 @@
         <v>2021</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2588,22 +2442,25 @@
         <v>2021</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2611,22 +2468,25 @@
         <v>2021</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27</v>
+      </c>
+      <c r="F8" t="n">
+        <v>89</v>
+      </c>
+      <c r="G8" t="n">
         <v>30</v>
       </c>
-      <c r="E8" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" t="n">
-        <v>53</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48</v>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -2634,22 +2494,25 @@
         <v>2021</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2657,22 +2520,25 @@
         <v>2021</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2680,22 +2546,25 @@
         <v>2022</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2703,22 +2572,25 @@
         <v>2022</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2726,22 +2598,25 @@
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2749,22 +2624,25 @@
         <v>2022</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F14" t="n">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2772,22 +2650,25 @@
         <v>2022</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2795,22 +2676,25 @@
         <v>2022</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -2818,22 +2702,25 @@
         <v>2022</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" t="n">
+        <v>26</v>
+      </c>
+      <c r="F17" t="n">
+        <v>95</v>
+      </c>
+      <c r="G17" t="n">
+        <v>36</v>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>33</v>
-      </c>
-      <c r="E17" t="n">
-        <v>40</v>
-      </c>
-      <c r="F17" t="n">
-        <v>53</v>
-      </c>
-      <c r="G17" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -2841,22 +2728,25 @@
         <v>2022</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2864,22 +2754,25 @@
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2887,22 +2780,25 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>71</v>
+      </c>
+      <c r="F20" t="n">
         <v>52</v>
       </c>
-      <c r="E20" t="n">
-        <v>19</v>
-      </c>
-      <c r="F20" t="n">
-        <v>17</v>
-      </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2910,22 +2806,25 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2933,22 +2832,25 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2956,22 +2858,25 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G23" t="n">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2979,22 +2884,25 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -3002,22 +2910,25 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3025,22 +2936,25 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="G26" t="n">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -3048,22 +2962,25 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3071,27 +2988,30 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
-        <v>10</v>
-      </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3099,7 +3019,909 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>73</v>
+      </c>
+      <c r="E2" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63</v>
+      </c>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" t="n">
+        <v>62</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32</v>
+      </c>
+      <c r="E7" t="n">
+        <v>68</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>99</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108</v>
+      </c>
+      <c r="E3" t="n">
+        <v>42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30</v>
+      </c>
+      <c r="F8" t="n">
+        <v>53</v>
+      </c>
+      <c r="G8" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41</v>
+      </c>
+      <c r="D11" t="n">
+        <v>66</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>89</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38</v>
+      </c>
+      <c r="F12" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61</v>
+      </c>
+      <c r="E13" t="n">
+        <v>27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>29</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>62</v>
+      </c>
+      <c r="E14" t="n">
+        <v>36</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>54</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40</v>
+      </c>
+      <c r="F17" t="n">
+        <v>53</v>
+      </c>
+      <c r="G17" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>48</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>59</v>
+      </c>
+      <c r="D21" t="n">
+        <v>77</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>65</v>
+      </c>
+      <c r="E22" t="n">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" t="n">
+        <v>68</v>
+      </c>
+      <c r="E23" t="n">
+        <v>45</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29</v>
+      </c>
+      <c r="G23" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>38</v>
+      </c>
+      <c r="E24" t="n">
+        <v>24</v>
+      </c>
+      <c r="F24" t="n">
+        <v>30</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>47</v>
+      </c>
+      <c r="E25" t="n">
+        <v>34</v>
+      </c>
+      <c r="F25" t="n">
+        <v>35</v>
+      </c>
+      <c r="G25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>48</v>
+      </c>
+      <c r="E26" t="n">
+        <v>42</v>
+      </c>
+      <c r="F26" t="n">
+        <v>52</v>
+      </c>
+      <c r="G26" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>21</v>
+      </c>
+      <c r="G28" t="n">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3305,6 +4127,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Cuadros/q10_budget.xlsx
+++ b/Cuadros/q10_budget.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DE149-D843-4189-884E-F509C9B59934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="q10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="q10_q4agrup" sheetId="8" state="visible" r:id="rId2"/>
-    <sheet name="q10_q4agrup_media" sheetId="9" state="visible" r:id="rId3"/>
-    <sheet name="q10_q5" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="q10_q5_media" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="q10_q6" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="q10_q6_media" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="q10_q9" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="q10_q9_media" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="q13_q4agrup" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="q14_q4agrup" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="q10" sheetId="1" r:id="rId1"/>
+    <sheet name="q10_q4agrup" sheetId="8" r:id="rId2"/>
+    <sheet name="q10_q4agrup_media" sheetId="9" r:id="rId3"/>
+    <sheet name="q10_q5" sheetId="2" r:id="rId4"/>
+    <sheet name="q10_q5_media" sheetId="3" r:id="rId5"/>
+    <sheet name="q10_q6" sheetId="4" r:id="rId6"/>
+    <sheet name="q10_q6_media" sheetId="5" r:id="rId7"/>
+    <sheet name="q10_q9" sheetId="6" r:id="rId8"/>
+    <sheet name="q10_q9_media" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>Annual_budget</t>
   </si>
@@ -185,53 +190,13 @@
   </si>
   <si>
     <t>Specific AWID subjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External funding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other subjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific AWID subjects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q4_awid_focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 Zero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Lower than 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Between 30% and 40%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Between 50% and 60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Between 70% and 80%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Higher than 80%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -557,14 +522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,156 +546,156 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>173</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>154</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>143</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>157</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>213</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>204</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>205</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>207</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>132</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>145</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>136</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>138</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>150</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>178</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>196</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>175</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>95</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>113</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>102</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>107</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>132</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>144</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>128</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>162</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>178</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>197</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>179</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>32</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>47</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>40</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>56</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>62</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>68</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>62</v>
       </c>
     </row>
@@ -740,258 +705,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="n">
-        <v>89</v>
-      </c>
-      <c r="C2" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="n">
-        <v>235</v>
-      </c>
-      <c r="C3" t="n">
-        <v>605</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21</v>
-      </c>
-      <c r="F2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" t="n">
-        <v>29</v>
-      </c>
-      <c r="H2" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>66</v>
-      </c>
-      <c r="F3" t="n">
-        <v>57</v>
-      </c>
-      <c r="G3" t="n">
-        <v>88</v>
-      </c>
-      <c r="H3" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36</v>
-      </c>
-      <c r="E4" t="n">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86</v>
-      </c>
-      <c r="E5" t="n">
-        <v>68</v>
-      </c>
-      <c r="F5" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" t="n">
-        <v>111</v>
-      </c>
-      <c r="H5" t="n">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13</v>
-      </c>
-      <c r="G6" t="n">
-        <v>47</v>
-      </c>
-      <c r="H6" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13</v>
-      </c>
-      <c r="D7" t="n">
-        <v>69</v>
-      </c>
-      <c r="E7" t="n">
-        <v>79</v>
-      </c>
-      <c r="F7" t="n">
-        <v>82</v>
-      </c>
-      <c r="G7" t="n">
-        <v>124</v>
-      </c>
-      <c r="H7" t="n">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1005,381 +727,381 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>53</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>120</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>66</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>147</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2021</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>28</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>104</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>45</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>105</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2021</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>76</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2021</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>26</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>81</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2021</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>58</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>104</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2021</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2021</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>42</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>104</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>61</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>143</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2022</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>37</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>108</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>49</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>129</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2022</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>23</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>72</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>34</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>98</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>65</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>113</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>9</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>20</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>42</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>51</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>92</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>63</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>142</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>41</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>95</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>52</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>144</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>24</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>89</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>37</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>107</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>69</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>128</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>37</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>21</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>47</v>
       </c>
     </row>
@@ -1390,14 +1112,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1408,102 +1130,102 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>51</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>105</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>63</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>144</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>102</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>49</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>126</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>23</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>95</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>64</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>115</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>29</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>44</v>
       </c>
     </row>
@@ -1514,14 +1236,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1541,543 +1263,543 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>63</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>156</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2021</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>27</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>99</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>130</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2021</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>88</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2021</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>100</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2021</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>156</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2021</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>29</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2021</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>54</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>56</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>88</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>53</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>6</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>141</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2022</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>112</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>30</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>142</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2022</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>9</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>82</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>119</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>171</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>37</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>60</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>55</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>8</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>76</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>58</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>139</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>32</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>96</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>151</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>12</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>97</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>133</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>12</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>182</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>46</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>65</v>
       </c>
     </row>
@@ -2088,16 +1810,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2114,156 +1836,156 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>58</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>88</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>52</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>145</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>102</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>141</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>89</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>117</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>170</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>60</v>
       </c>
     </row>
@@ -2274,14 +1996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2307,705 +2029,705 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>75</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>71</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>88</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2021</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>48</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>68</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>80</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>17</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2021</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>61</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>11</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2021</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>56</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>11</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2021</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>27</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>89</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2021</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2021</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>74</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>59</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>82</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>92</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>4</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2022</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>54</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>77</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>63</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>91</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>18</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2022</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>26</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>59</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>6</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>36</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>69</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>16</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>26</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>95</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>36</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>6</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>25</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>25</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>21</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>11</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>71</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>52</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>8</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>90</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>91</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>7</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>46</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>68</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>13</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>75</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>96</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>15</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>33</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>65</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>3</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>36</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>78</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>20</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>2</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>11</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>31</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>112</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>33</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>7</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>29</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>9</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>26</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>24</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>11</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>2</v>
       </c>
     </row>
@@ -3016,14 +2738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3046,210 +2768,210 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>73</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>61</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>87</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>94</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>49</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>71</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>63</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>89</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>17</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>28</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>62</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>9</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>32</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>68</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>99</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>33</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>23</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>25</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>21</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>2</v>
       </c>
     </row>
@@ -3260,14 +2982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3290,624 +3012,624 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>28</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>89</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>27</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>21</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>108</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>42</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2021</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>63</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>26</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>46</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>33</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>41</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2021</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>38</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>23</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>26</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>2021</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>29</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>32</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>28</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>2021</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>30</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>53</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>48</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>2021</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2021</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>29</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2022</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>41</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>66</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>21</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2022</v>
       </c>
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>37</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>89</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>38</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>24</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2022</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>18</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>61</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>27</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>29</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>10</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>17</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>62</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>36</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>38</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>25</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2022</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>32</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>22</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>19</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>12</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>54</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>27</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>34</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>33</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>40</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>53</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>46</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>13</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>12</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>19</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>29</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>48</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>52</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>17</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>7</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2023</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>59</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>77</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>29</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>29</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>11</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2023</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>65</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>17</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>23</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>10</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2023</v>
       </c>
       <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>30</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>68</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>45</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>29</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>24</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2023</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>13</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>38</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>24</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>30</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>8</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>10</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>47</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>34</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>35</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>18</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2023</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>48</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>42</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>52</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>47</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2023</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>10</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>7</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>15</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>12</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>2023</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>10</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>21</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>32</v>
       </c>
     </row>
@@ -3918,14 +3640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3945,183 +3667,183 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>39</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>69</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>38</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>91</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>36</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>28</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>15</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>63</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>26</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>59</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>38</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>36</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>43</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>31</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>32</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>37</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>53</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>13</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>19</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>30</v>
       </c>
     </row>

--- a/Cuadros/q10_budget.xlsx
+++ b/Cuadros/q10_budget.xlsx
@@ -8,27 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267DE149-D843-4189-884E-F509C9B59934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6ED4FE-DDF6-4805-AD4D-CC42D8180FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q10" sheetId="1" r:id="rId1"/>
     <sheet name="q10_q4agrup" sheetId="8" r:id="rId2"/>
     <sheet name="q10_q4agrup_media" sheetId="9" r:id="rId3"/>
     <sheet name="q10_q5" sheetId="2" r:id="rId4"/>
-    <sheet name="q10_q5_media" sheetId="3" r:id="rId5"/>
-    <sheet name="q10_q6" sheetId="4" r:id="rId6"/>
-    <sheet name="q10_q6_media" sheetId="5" r:id="rId7"/>
-    <sheet name="q10_q9" sheetId="6" r:id="rId8"/>
-    <sheet name="q10_q9_media" sheetId="7" r:id="rId9"/>
+    <sheet name="q10_q4" sheetId="10" r:id="rId5"/>
+    <sheet name="q10_q4_media" sheetId="11" r:id="rId6"/>
+    <sheet name="q10_q5_media" sheetId="3" r:id="rId7"/>
+    <sheet name="q10_q6" sheetId="4" r:id="rId8"/>
+    <sheet name="q10_q6_media" sheetId="5" r:id="rId9"/>
+    <sheet name="q10_q9" sheetId="6" r:id="rId10"/>
+    <sheet name="q10_q9_media" sheetId="7" r:id="rId11"/>
+    <sheet name="q10_region" sheetId="12" r:id="rId12"/>
+    <sheet name="q10_region_media" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">q10_region!$A$27:$J$36</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="114">
   <si>
     <t>Annual_budget</t>
   </si>
@@ -190,6 +197,186 @@
   </si>
   <si>
     <t>Specific AWID subjects</t>
+  </si>
+  <si>
+    <t>Table for 2021</t>
+  </si>
+  <si>
+    <t>Annual_budget</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LGTBIQ</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Sex_workers</t>
+  </si>
+  <si>
+    <t>Anti_caste</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Countering_anti</t>
+  </si>
+  <si>
+    <t>Harm_reduction</t>
+  </si>
+  <si>
+    <t>Disability_rights</t>
+  </si>
+  <si>
+    <t>(a) Zero budget</t>
+  </si>
+  <si>
+    <t>(b) &lt;5000</t>
+  </si>
+  <si>
+    <t>(c) 5001-10000</t>
+  </si>
+  <si>
+    <t>(d) 10001-30000</t>
+  </si>
+  <si>
+    <t>(e) 30001 -50000</t>
+  </si>
+  <si>
+    <t>(f) 50001 - 100000</t>
+  </si>
+  <si>
+    <t>(g) 100001 - 500000</t>
+  </si>
+  <si>
+    <t>(h) 500001 - 1000000</t>
+  </si>
+  <si>
+    <t>(i) &gt; 1000000</t>
+  </si>
+  <si>
+    <t>Table for 2022</t>
+  </si>
+  <si>
+    <t>Table for 2023</t>
+  </si>
+  <si>
+    <t>Promedio_Total</t>
+  </si>
+  <si>
+    <t>Promedio_LGTBIQ</t>
+  </si>
+  <si>
+    <t>Promedio_Young</t>
+  </si>
+  <si>
+    <t>Promedio_Sex_workers</t>
+  </si>
+  <si>
+    <t>Promedio_Anti_caste</t>
+  </si>
+  <si>
+    <t>Promedio_Climate</t>
+  </si>
+  <si>
+    <t>Promedio_Countering_anti</t>
+  </si>
+  <si>
+    <t>Promedio_Harm_reduction</t>
+  </si>
+  <si>
+    <t>Promedio_Disability_rights</t>
+  </si>
+  <si>
+    <t>Table for 2021</t>
+  </si>
+  <si>
+    <t>Annual_budget</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t>2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t>3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t>4. Africa</t>
+  </si>
+  <si>
+    <t>5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t>6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t>7. South West Asia/Middle East &amp; North Africa</t>
+  </si>
+  <si>
+    <t>(a) Zero budget</t>
+  </si>
+  <si>
+    <t>(b) &lt;5000</t>
+  </si>
+  <si>
+    <t>(c) 5001-10000</t>
+  </si>
+  <si>
+    <t>(d) 10001-30000</t>
+  </si>
+  <si>
+    <t>(e) 30001 -50000</t>
+  </si>
+  <si>
+    <t>(f) 50001 - 100000</t>
+  </si>
+  <si>
+    <t>(g) 100001 - 500000</t>
+  </si>
+  <si>
+    <t>(h) 500001 - 1000000</t>
+  </si>
+  <si>
+    <t>(i) &gt; 1000000</t>
+  </si>
+  <si>
+    <t>Table for 2022</t>
+  </si>
+  <si>
+    <t>Table for 2023</t>
+  </si>
+  <si>
+    <t>Promedio_Total</t>
+  </si>
+  <si>
+    <t>Promedio_Latin_America</t>
+  </si>
+  <si>
+    <t>Promedio_Western_Europe</t>
+  </si>
+  <si>
+    <t>Promedio_Eastern_Europe</t>
+  </si>
+  <si>
+    <t>Promedio_Africa</t>
+  </si>
+  <si>
+    <t>Promedio_Asia_Pacific</t>
+  </si>
+  <si>
+    <t>Promedio_Central_Asia</t>
+  </si>
+  <si>
+    <t>Promedio_South_West_Asia</t>
   </si>
 </sst>
 </file>
@@ -705,6 +892,2084 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>89</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <v>42</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>89</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>38</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2022</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2022</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2023</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>68</v>
+      </c>
+      <c r="E23">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2023</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>52</v>
+      </c>
+      <c r="G26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2023</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2023</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>69</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>91</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>173</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>213</v>
+      </c>
+      <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>162</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>57</v>
+      </c>
+      <c r="G9">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>154</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>204</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>86</v>
+      </c>
+      <c r="G16">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>145</v>
+      </c>
+      <c r="C17">
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>58</v>
+      </c>
+      <c r="G17">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>178</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>64</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>41</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>132</v>
+      </c>
+      <c r="C20">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21">
+        <v>178</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>143</v>
+      </c>
+      <c r="C28">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>205</v>
+      </c>
+      <c r="C29">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>83</v>
+      </c>
+      <c r="G29">
+        <v>46</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>44</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31">
+        <v>196</v>
+      </c>
+      <c r="C31">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>83</v>
+      </c>
+      <c r="G31">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>113</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>144</v>
+      </c>
+      <c r="C33">
+        <v>41</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>63</v>
+      </c>
+      <c r="G33">
+        <v>27</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34">
+        <v>197</v>
+      </c>
+      <c r="C34">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>68</v>
+      </c>
+      <c r="G34">
+        <v>43</v>
+      </c>
+      <c r="H34">
+        <v>9</v>
+      </c>
+      <c r="I34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A27:J36" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>157</v>
+      </c>
+      <c r="C2">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>207</v>
+      </c>
+      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>86</v>
+      </c>
+      <c r="G3">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D28"/>
@@ -1811,6 +4076,1332 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>173</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>213</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>162</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>154</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>204</v>
+      </c>
+      <c r="C16">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>59</v>
+      </c>
+      <c r="I16">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>145</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>44</v>
+      </c>
+      <c r="H17">
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>22</v>
+      </c>
+      <c r="J17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>178</v>
+      </c>
+      <c r="C18">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>58</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
+      </c>
+      <c r="I18">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>38</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>132</v>
+      </c>
+      <c r="C20">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>178</v>
+      </c>
+      <c r="C21">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>49</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>143</v>
+      </c>
+      <c r="C28">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>67</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>42</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>26</v>
+      </c>
+      <c r="J28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>205</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>91</v>
+      </c>
+      <c r="E29">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>63</v>
+      </c>
+      <c r="H29">
+        <v>55</v>
+      </c>
+      <c r="I29">
+        <v>34</v>
+      </c>
+      <c r="J29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>49</v>
+      </c>
+      <c r="D30">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>44</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30">
+        <v>27</v>
+      </c>
+      <c r="J30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>196</v>
+      </c>
+      <c r="C31">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>43</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>63</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>113</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <v>21</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>144</v>
+      </c>
+      <c r="C33">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>64</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>51</v>
+      </c>
+      <c r="H33">
+        <v>28</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34">
+        <v>197</v>
+      </c>
+      <c r="C34">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>75</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>56</v>
+      </c>
+      <c r="H34">
+        <v>48</v>
+      </c>
+      <c r="I34">
+        <v>18</v>
+      </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35">
+        <v>21</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>22</v>
+      </c>
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A27:K36" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>157</v>
+      </c>
+      <c r="C2">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>207</v>
+      </c>
+      <c r="C3">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>175</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>79</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>44</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1995,8 +5586,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2737,8 +6328,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2979,876 +6570,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2021</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>28</v>
-      </c>
-      <c r="D2">
-        <v>89</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>108</v>
-      </c>
-      <c r="E3">
-        <v>42</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>33</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>38</v>
-      </c>
-      <c r="E6">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2021</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>53</v>
-      </c>
-      <c r="G8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2021</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2021</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>66</v>
-      </c>
-      <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>89</v>
-      </c>
-      <c r="E12">
-        <v>38</v>
-      </c>
-      <c r="F12">
-        <v>24</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>61</v>
-      </c>
-      <c r="E13">
-        <v>27</v>
-      </c>
-      <c r="F13">
-        <v>29</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>62</v>
-      </c>
-      <c r="E14">
-        <v>36</v>
-      </c>
-      <c r="F14">
-        <v>38</v>
-      </c>
-      <c r="G14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>54</v>
-      </c>
-      <c r="E16">
-        <v>27</v>
-      </c>
-      <c r="F16">
-        <v>34</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>53</v>
-      </c>
-      <c r="G17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2022</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2023</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20">
-        <v>48</v>
-      </c>
-      <c r="D20">
-        <v>52</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2023</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21">
-        <v>59</v>
-      </c>
-      <c r="D21">
-        <v>77</v>
-      </c>
-      <c r="E21">
-        <v>29</v>
-      </c>
-      <c r="F21">
-        <v>29</v>
-      </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2023</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>65</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="F22">
-        <v>23</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2023</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>68</v>
-      </c>
-      <c r="E23">
-        <v>45</v>
-      </c>
-      <c r="F23">
-        <v>29</v>
-      </c>
-      <c r="G23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2023</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>38</v>
-      </c>
-      <c r="E24">
-        <v>24</v>
-      </c>
-      <c r="F24">
-        <v>30</v>
-      </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2023</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>47</v>
-      </c>
-      <c r="E25">
-        <v>34</v>
-      </c>
-      <c r="F25">
-        <v>35</v>
-      </c>
-      <c r="G25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>48</v>
-      </c>
-      <c r="E26">
-        <v>42</v>
-      </c>
-      <c r="F26">
-        <v>52</v>
-      </c>
-      <c r="G26">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2023</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2023</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>21</v>
-      </c>
-      <c r="G28">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>69</v>
-      </c>
-      <c r="D2">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>38</v>
-      </c>
-      <c r="C3">
-        <v>91</v>
-      </c>
-      <c r="D3">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>63</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>59</v>
-      </c>
-      <c r="D5">
-        <v>38</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>53</v>
-      </c>
-      <c r="F8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>19</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>